--- a/data/trans_camb/P16B18-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Estudios-trans_camb.xlsx
@@ -526,7 +526,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyos medicamentos anticonceptivos fueron recetados</t>
+          <t>Mujeres menores de 55 años cuyos anticonceptivos consumidos fueron recetados por el médico</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16B18-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Estudios-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.006744787409502</v>
+        <v>4.739591038776137</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-10.9138699157344</v>
+        <v>-11.12933117169961</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>43.37644072443464</v>
+        <v>42.5678653028066</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>31.86237452987148</v>
+        <v>32.73746436551888</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.05270396007796466</v>
+        <v>0.04975299596267976</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1206581688970399</v>
+        <v>-0.1225427143079211</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7660469919806364</v>
+        <v>0.74118197510678</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4996820526744792</v>
+        <v>0.4978425730356905</v>
       </c>
     </row>
     <row r="10">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.576684167225745</v>
+        <v>-1.7781397460001</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.121015793533288</v>
+        <v>-1.134808830650625</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.778088530173319</v>
+        <v>6.965364943771868</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.63365157164628</v>
+        <v>7.663225483754166</v>
       </c>
     </row>
     <row r="13">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.01598960744708472</v>
+        <v>-0.01823079418044144</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.01153745598603195</v>
+        <v>-0.01157525355275401</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.07396682069497348</v>
+        <v>0.07595843351400072</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.08327264463984035</v>
+        <v>0.08376051236668319</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.486511075767582</v>
+        <v>6.514973774080988</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-12.75512181153908</v>
+        <v>-14.38865573548336</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.68252980885613</v>
+        <v>23.41311420727434</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.85475683567313</v>
+        <v>14.59974651928744</v>
       </c>
     </row>
     <row r="19">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.06936443646601873</v>
+        <v>0.0696899382650797</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1436285555410111</v>
+        <v>-0.159603635469592</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3103142521893793</v>
+        <v>0.3057033335129087</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1843636322627699</v>
+        <v>0.1812348543550348</v>
       </c>
     </row>
     <row r="22">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.030035867110544</v>
+        <v>2.789137202985916</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.18392637953252</v>
+        <v>-0.8047290529406609</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.41912633442246</v>
+        <v>11.2566271078905</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.875416893746745</v>
+        <v>9.501640312600527</v>
       </c>
     </row>
     <row r="25">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.03203091363943743</v>
+        <v>0.02969446995021246</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.01224515540507144</v>
+        <v>-0.007485365068241677</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1317199189379091</v>
+        <v>0.1292091098865709</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1010066260154654</v>
+        <v>0.108149825823928</v>
       </c>
     </row>
     <row r="28">
